--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>pose_key</t>
   </si>
@@ -123,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: 안녕하시게. 내가 첫손님인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 그럼 다음에 오겠네. 다음에 왔을 땐 더 좋은 칵테일을 바라겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 그럼 다음에 오겠네. 다음에 왔을 땐 더 좋은 칵테일을 바라겠네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>윌리엄: 와우 정말 좋은 느낌의 기념주네요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,18 +167,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: 으음… 굉장히 화려하지만 맛이 아쉽군…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>윌리엄: 헬로, 바텐더 브라더! 반가워요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: 껄껄. 불타는게 화끈하구만! 그리고 달고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,22 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: 내가 첫손님이 아니라고? …...아쉽구만. 껄껄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 정말 좋아! 내 친구들에게도 소개시켜주고 싶은 맛이네. 껄껄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 썩 괜찮군... 개업한지 얼마 안된 칵테일 바치곤 나쁘지 않은 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. 사과하기도 쉽지않고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘레나: 와... 바텐더님 실력이 좋으시군요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,21 +215,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘레나: &lt;color=#6AFFFF&gt;용기&lt;/color&gt;가 필요할 것 같아요. 항상 제가 먼저 사과해야 풀리는 이 관계가 좀 씁쓸하긴 하네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visit_man_enter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: &lt;color=#6AFFFF&gt;처음 만드는 칵테일&lt;/color&gt;을 주게. 첫 번째 순서만큼 짜릿한 게 없지.</t>
-  </si>
-  <si>
     <t>윌리엄: 벌써 너무나 &lt;color=#6AFFFF&gt;설레는데&lt;/color&gt; 기념주 한 잔 주세요 브라더!</t>
   </si>
   <si>
     <t>레이첼: 참 &lt;color=#6AFFFF&gt;서럽네요&lt;/color&gt;. 나만 이런가 억울하기도 하고요… 하하... 적당히 술 추천 부탁드릴게요.</t>
+  </si>
+  <si>
+    <t>채플린: 날씨 한 번 우중충하군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 목 끝까지 타들어 가는 기분이군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 요즘 나이가 들어서 무릎이 쑤셔.. &lt;br&gt;미각도 몹쓸 무릎 마냥 시원치 않고 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 지금 생각해보니 이 일을 진작에 그만두어야 하지 않았나라는 생각이 드는군. 좋은 한 잔 이었네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 달달한 맛이 느껴지는데.. 도저히 모르겠군. 예전에 나라면 눈치를 챘을까?</t>
+  </si>
+  <si>
+    <t>채플린: 맛 자체는 괜찮은데 이.. 아니.. 잘 모르겠군.. 방금 한 말은 잊어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 좋은 한 잔 이었네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 맛 자체는 괜찮은데 이 쓴 맛이.. 아니 단 맛이.. 조금 과하군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 내가 비록 나이 때문에 미각이 조금 더디지만 그래도 소믈리에라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 그래도 이정도면 젋은이 치고는 괜찮았네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. &lt;br&gt;사과하기도 쉽지않고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: &lt;color=#6AFFFF&gt;용기&lt;/color&gt;가 필요할 것 같아요. 항상 제가 &lt;br&gt;먼저 사과해야 풀리는 이 관계가 좀 씁쓸하긴 &lt;br&gt;하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 그렇지만 &lt;color=#6AFFFF&gt;이 일을 포기할 용기는 &lt;br&gt;나지 않아..&lt;/color&gt; 나의 선택을 도와주게. 한 잔 &lt;br&gt;부탁하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 항상 잠에 들기 전에, 이 망할 소믈리에 &lt;br&gt;일을 계속 할 수 없을 것 같다는 생각에 잠을 &lt;br&gt;설치지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -615,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -635,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -647,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -655,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -664,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -672,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -684,197 +696,197 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -883,44 +895,41 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -928,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -940,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -948,16 +957,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -965,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -985,16 +994,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1002,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1022,27 +1031,27 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1051,44 +1060,44 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1096,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -1108,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1116,16 +1125,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1133,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1153,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1170,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1190,70 +1199,70 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1261,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1273,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1281,18 +1290,55 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>pose_key</t>
   </si>
@@ -98,185 +98,191 @@
     <t>visit_girl1_exit_perfect</t>
   </si>
   <si>
+    <t>레이첼: 그래도 술은 적당히 마시는게 저한테는 좋은 것 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 다음엔 더 잘 부탁드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 흐음 나랑은 안 맞는 칵테일이군요…</t>
+  </si>
+  <si>
+    <t>윌리엄: 아쉽습니다... 많이 발전해 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 잘 마셨어요. 다음에 올게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 와우 정말 좋은 느낌의 기념주네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 브라더! 다음 주에 시합 이기고 오겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 오우 그럭저럭 나쁘지 않네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 맛있었습니다. 그럼 많이 파세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 흐음…... 술 하나 추천해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 오... 바텐더님 좋은 술을 만드시네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 제가 농구를 중학교 때부터 해서 다음 주에 농구선수로 데뷔합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 오늘은 참 슬픈 일이 있었어요. 남자친구랑 다투고 오늘 헤어졌어요… 제가 잘못한 건 아닌 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 제 마음이 치유되는 느낌이에요. 감사해요. 한 번 더 오고 싶은 맛이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 술을 좋아하진 않지만 생각보다 맛있네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 안녕하세요. 바 분위기가 되게 좋네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 헬로, 바텐더 브라더! 반가워요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_sommelier_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 와... 바텐더님 실력이 좋으시군요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 이걸 먹으니 뭔가 사과할 수 있을 것 같은 기분이 들어요. 다음에 또 올게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 흠... 칵테일은 맛있지만 제 스타일은 아니네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레이첼: 안녕하세요. 바가 이런 분위기군요? 제가 바를 잘 안가봐서 술은 잘 몰라요... </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 술을 좋아하진 않지만 생각보다 맛있네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_man_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: 벌써 너무나 &lt;color=#6AFFFF&gt;설레는데&lt;/color&gt; 기념주 한 잔 주세요 브라더!</t>
+  </si>
+  <si>
+    <t>레이첼: 참 &lt;color=#6AFFFF&gt;서럽네요&lt;/color&gt;. 나만 이런가 억울하기도 하고요… 하하... 적당히 술 추천 부탁드릴게요.</t>
+  </si>
+  <si>
+    <t>채플린: 날씨 한 번 우중충하군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 목 끝까지 타들어 가는 기분이군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 요즘 나이가 들어서 무릎이 쑤셔.. &lt;br&gt;미각도 몹쓸 무릎 마냥 시원치 않고 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 지금 생각해보니 이 일을 진작에 그만두어야 하지 않았나라는 생각이 드는군. 좋은 한 잔 이었네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 달달한 맛이 느껴지는데.. 도저히 모르겠군. 예전에 나라면 눈치를 챘을까?</t>
+  </si>
+  <si>
+    <t>채플린: 맛 자체는 괜찮은데 이.. 아니.. 잘 모르겠군.. 방금 한 말은 잊어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 좋은 한 잔 이었네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 맛 자체는 괜찮은데 이 쓴 맛이.. 아니 단 맛이.. 조금 과하군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 내가 비록 나이 때문에 미각이 조금 더디지만 그래도 소믈리에라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 그래도 이정도면 젋은이 치고는 괜찮았네. 잘 있게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. &lt;br&gt;사과하기도 쉽지않고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: &lt;color=#6AFFFF&gt;용기&lt;/color&gt;가 필요할 것 같아요. 항상 제가 &lt;br&gt;먼저 사과해야 풀리는 이 관계가 좀 씁쓸하긴 &lt;br&gt;하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 그렇지만 &lt;color=#6AFFFF&gt;이 일을 포기할 용기는 &lt;br&gt;나지 않아..&lt;/color&gt; 나의 선택을 도와주게. 한 잔 &lt;br&gt;부탁하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 항상 잠에 들기 전에, 이 망할 소믈리에 &lt;br&gt;일을 계속 할 수 없을 것 같다는 생각에 잠을 &lt;br&gt;설치지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_exit_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>visit_girl1_exit_good</t>
-  </si>
-  <si>
-    <t>visit_girl2_exit_good</t>
-  </si>
-  <si>
-    <t>레이첼: 그래도 술은 적당히 마시는게 저한테는 좋은 것 같아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 다음엔 더 잘 부탁드릴게요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 흐음 나랑은 안 맞는 칵테일이군요…</t>
-  </si>
-  <si>
-    <t>윌리엄: 아쉽습니다... 많이 발전해 주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 잘 마셨어요. 다음에 올게요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 와우 정말 좋은 느낌의 기념주네요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 브라더! 다음 주에 시합 이기고 오겠습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 오우 그럭저럭 나쁘지 않네요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 맛있었습니다. 그럼 많이 파세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 흐음…... 술 하나 추천해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 오... 바텐더님 좋은 술을 만드시네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 제가 농구를 중학교 때부터 해서 다음 주에 농구선수로 데뷔합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이첼: 오늘은 참 슬픈 일이 있었어요. 남자친구랑 다투고 오늘 헤어졌어요… 제가 잘못한 건 아닌 것 같은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이첼: 제 마음이 치유되는 느낌이에요. 감사해요. 한 번 더 오고 싶은 맛이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이첼: 술을 좋아하진 않지만 생각보다 맛있네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 안녕하세요. 바 분위기가 되게 좋네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 헬로, 바텐더 브라더! 반가워요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_sommelier_enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이첼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 와... 바텐더님 실력이 좋으시군요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 이걸 먹으니 뭔가 사과할 수 있을 것 같은 기분이 들어요. 다음에 또 올게요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 흠... 칵테일은 맛있지만 제 스타일은 아니네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">레이첼: 안녕하세요. 바가 이런 분위기군요? 제가 바를 잘 안가봐서 술은 잘 몰라요... </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이첼: 술을 좋아하진 않지만 생각보다 맛있네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_man_enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌리엄: 벌써 너무나 &lt;color=#6AFFFF&gt;설레는데&lt;/color&gt; 기념주 한 잔 주세요 브라더!</t>
-  </si>
-  <si>
-    <t>레이첼: 참 &lt;color=#6AFFFF&gt;서럽네요&lt;/color&gt;. 나만 이런가 억울하기도 하고요… 하하... 적당히 술 추천 부탁드릴게요.</t>
-  </si>
-  <si>
-    <t>채플린: 날씨 한 번 우중충하군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 목 끝까지 타들어 가는 기분이군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 요즘 나이가 들어서 무릎이 쑤셔.. &lt;br&gt;미각도 몹쓸 무릎 마냥 시원치 않고 말이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 지금 생각해보니 이 일을 진작에 그만두어야 하지 않았나라는 생각이 드는군. 좋은 한 잔 이었네. 잘 있게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 달달한 맛이 느껴지는데.. 도저히 모르겠군. 예전에 나라면 눈치를 챘을까?</t>
-  </si>
-  <si>
-    <t>채플린: 맛 자체는 괜찮은데 이.. 아니.. 잘 모르겠군.. 방금 한 말은 잊어줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 좋은 한 잔 이었네. 잘 있게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 맛 자체는 괜찮은데 이 쓴 맛이.. 아니 단 맛이.. 조금 과하군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 내가 비록 나이 때문에 미각이 조금 더디지만 그래도 소믈리에라고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 그래도 이정도면 젋은이 치고는 괜찮았네. 잘 있게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. &lt;br&gt;사과하기도 쉽지않고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: &lt;color=#6AFFFF&gt;용기&lt;/color&gt;가 필요할 것 같아요. 항상 제가 &lt;br&gt;먼저 사과해야 풀리는 이 관계가 좀 씁쓸하긴 &lt;br&gt;하네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 그렇지만 &lt;color=#6AFFFF&gt;이 일을 포기할 용기는 &lt;br&gt;나지 않아..&lt;/color&gt; 나의 선택을 도와주게. 한 잔 &lt;br&gt;부탁하네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채플린: 항상 잠에 들기 전에, 이 망할 소믈리에 &lt;br&gt;일을 계속 할 수 없을 것 같다는 생각에 잠을 &lt;br&gt;설치지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_exit_bad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -627,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -647,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -667,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -684,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -704,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -738,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -758,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -795,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -829,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -849,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -878,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -886,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -895,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -903,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -912,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -920,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -937,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -949,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -957,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -966,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -994,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1003,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1023,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1031,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1040,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1048,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1060,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1068,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1077,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1085,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1097,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1117,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1125,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -1134,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -1154,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1162,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -1171,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1179,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1191,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1199,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -1208,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1216,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -1228,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1236,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1245,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1253,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -1262,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1270,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1282,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1290,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -1299,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1307,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -1319,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1327,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1339,7 +1345,44 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dev/Data/Dialogue/scriptTable.xlsx
+++ b/Assets/Dev/Data/Dialogue/scriptTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NewGameProject\Assets\Dev\Data\Dialogue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\NewGameProject\Assets\Dev\Data\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="_script" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>pose_key</t>
   </si>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘레나: 흐음…... 술 하나 추천해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘레나: 오... 바텐더님 좋은 술을 만드시네요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레이첼: 오늘은 참 슬픈 일이 있었어요. 남자친구랑 다투고 오늘 헤어졌어요… 제가 잘못한 건 아닌 것 같은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레이첼: 제 마음이 치유되는 느낌이에요. 감사해요. 한 번 더 오고 싶은 맛이네요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘레나: 와... 바텐더님 실력이 좋으시군요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘레나: 이걸 먹으니 뭔가 사과할 수 있을 것 같은 기분이 들어요. 다음에 또 올게요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,12 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>윌리엄: 벌써 너무나 &lt;color=#6AFFFF&gt;설레는데&lt;/color&gt; 기념주 한 잔 주세요 브라더!</t>
-  </si>
-  <si>
-    <t>레이첼: 참 &lt;color=#6AFFFF&gt;서럽네요&lt;/color&gt;. 나만 이런가 억울하기도 하고요… 하하... 적당히 술 추천 부탁드릴게요.</t>
-  </si>
-  <si>
     <t>채플린: 날씨 한 번 우중충하군.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,11 +240,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. &lt;br&gt;사과하기도 쉽지않고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘레나: &lt;color=#6AFFFF&gt;용기&lt;/color&gt;가 필요할 것 같아요. 항상 제가 &lt;br&gt;먼저 사과해야 풀리는 이 관계가 좀 씁쓸하긴 &lt;br&gt;하네요.</t>
+    <t>visit_girl1_exit_perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_exit_good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_exit_bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채플린: 젊었을 때 처럼 &lt;color=#6AFFFF&gt;불타는 열정과 용기가 있으면&lt;/color&gt; 좋으련만…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,19 +260,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채플린: 항상 잠에 들기 전에, 이 망할 소믈리에 &lt;br&gt;일을 계속 할 수 없을 것 같다는 생각에 잠을 &lt;br&gt;설치지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_girl1_exit_perfect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_girl1_exit_good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_girl1_exit_bad</t>
+    <t>엘레나: 요즘 들어 아버지와 많이 싸워요. &lt;br&gt;&lt;color=#6AFFFF&gt;사과하기도 쉽지않고…&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 흐음... 서론이 길었네요, 저를 위해 술 하나만 추천해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 와... 바텐더님 보기보다 실력이 좋으시군요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: &lt;color=#6AFFFF&gt;마치 벚꽃이 휘날리는 것 같은&lt;/color&gt; 이 청량감!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 이제 박사학위 취득하게 되는데, 생각한 것보다 기분이 좋네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 박사과정하면서는 정말 힘들고 지쳤는데, 어른들말이 틀린거 없다고 막상 끝내니 통쾌하고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼: 그냥 너무 좋네요, 생각없이 &lt;color=#6AFFFF&gt;황홀하게 취할 수 있게&lt;/color&gt; 적당히 술 추천 부탁드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">엘레나: 이 나이에도 철없이 아버지 돈을 쓰니 어쩔 수 없기도 하지만.. &lt;color=#6AFFFF&gt;그냥 용기가 필요할 것 같아요.&lt;/color&gt;   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘레나: 어렸을 때 &lt;color=#6AFFFF&gt;거대한 목성처럼 품어주던 모습이&lt;/color&gt; 그립긴하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_girl1_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌리엄: &lt;color=#6AFFFF&gt;벌써 너무나 설레는데&lt;/color&gt; 기념주 한 잔 주세요 브라더!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,27 +631,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="4" width="26.58203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="132.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -648,15 +666,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -665,15 +683,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -682,15 +700,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -702,15 +720,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -719,15 +737,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -736,89 +754,89 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -827,15 +845,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -847,15 +865,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -864,15 +882,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -884,15 +902,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -904,12 +922,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -918,15 +936,15 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -935,223 +953,220 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -1160,183 +1175,180 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
         <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1345,35 +1357,35 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -1382,6 +1394,63 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
         <v>24</v>
       </c>
     </row>
